--- a/ToDoList/chapter01/ToDoList.xlsx
+++ b/ToDoList/chapter01/ToDoList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t xml:space="preserve">TODOリスト</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">$5 + 10 CHF = $10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✓</t>
   </si>
   <si>
     <t xml:space="preserve">$5 * 2 = $10</t>
@@ -50,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -77,6 +80,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike val="true"/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -125,7 +135,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,6 +146,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -158,7 +172,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -183,10 +197,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -194,7 +208,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -202,7 +216,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -210,7 +224,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
